--- a/biology/Médecine/1268_en_santé_et_médecine/1268_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1268_en_santé_et_médecine/1268_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1268_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1268_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1268 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1268_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1268_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À Strasbourg, une officine d'apothicaire est attestée à l'emplacement où une pharmacie, dite « Au cerf d'or » en 1635 et, depuis, « Pharmacie du cerf », sera encore ouverte en l'an 2000, au 10, place de la Cathédrale[1].
-Première mention à Rhinau, en Alsace, dans la principauté épiscopale de Strasbourg, d'un hôpital appartenant aux frères de Saint-Jean de Jérusalem[2].
-Jean de Bourgogne, seigneur de Charolais et de Bourbon, deuxième fils de Hugues IV, fonde par testament un hôpital à Moulins[3].
-Vers 1268 : le Livre des métiers d'Étienne Boileau, prévôt de Paris, soumet au même régime les « ciriers », les « poivriers » et les « apothicaires », mais il ne dit rien des « herbiers », « pourtant distingués des apothicaires par les maîtres en médecine en 1271 et mentionnés parmi les taillables en 1292[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À Strasbourg, une officine d'apothicaire est attestée à l'emplacement où une pharmacie, dite « Au cerf d'or » en 1635 et, depuis, « Pharmacie du cerf », sera encore ouverte en l'an 2000, au 10, place de la Cathédrale.
+Première mention à Rhinau, en Alsace, dans la principauté épiscopale de Strasbourg, d'un hôpital appartenant aux frères de Saint-Jean de Jérusalem.
+Jean de Bourgogne, seigneur de Charolais et de Bourbon, deuxième fils de Hugues IV, fonde par testament un hôpital à Moulins.
+Vers 1268 : le Livre des métiers d'Étienne Boileau, prévôt de Paris, soumet au même régime les « ciriers », les « poivriers » et les « apothicaires », mais il ne dit rien des « herbiers », « pourtant distingués des apothicaires par les maîtres en médecine en 1271 et mentionnés parmi les taillables en 1292 ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1268_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1268_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Guillaume de Salicet (1210-c.1276) achève la première version de sa Chirurgie, dont la dernière ne sera rédigée qu'en 1275[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guillaume de Salicet (1210-c.1276) achève la première version de sa Chirurgie, dont la dernière ne sera rédigée qu'en 1275.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1268_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1268_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +590,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. à Belley Clément[6] et Mathieu[7], médecins de Pierre II, comte de Savoie.
-Fl. Girard, barbier à Salins[6].
-Fl. Salvagnus, clerc et médecin de Bertran de Saint-Martin, archevêque d'Arles[7].
-1264-1268 : fl. Jacques, médecin de Pierre II, comte de Savoie et de sa femme Agnès de Faucigny, qu'il assiste dans leur dernière maladie[6].
-1268-1286 : fl. Bertrand, médecin, mort en 1286 au plus tard, cité dans les testaments du doyen de Montbrison et de Pierre, chevalier de Marcilly, et peut-être identifiable à Bertrand de Cossat, père d'un juge du Forez[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. à Belley Clément et Mathieu, médecins de Pierre II, comte de Savoie.
+Fl. Girard, barbier à Salins.
+Fl. Salvagnus, clerc et médecin de Bertran de Saint-Martin, archevêque d'Arles.
+1264-1268 : fl. Jacques, médecin de Pierre II, comte de Savoie et de sa femme Agnès de Faucigny, qu'il assiste dans leur dernière maladie.
+1268-1286 : fl. Bertrand, médecin, mort en 1286 au plus tard, cité dans les testaments du doyen de Montbrison et de Pierre, chevalier de Marcilly, et peut-être identifiable à Bertrand de Cossat, père d'un juge du Forez.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1268_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1268_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1267 ou 1268 : Ibn al-Lubudi (né en 1210 ou 1211), médecin, mathématicien, astronome et philosophe arabe originaire d'Alep, auteur du Recueil de discussions sur cinquante questions de psychologie et de médecine[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1267 ou 1268 : Ibn al-Lubudi (né en 1210 ou 1211), médecin, mathématicien, astronome et philosophe arabe originaire d'Alep, auteur du Recueil de discussions sur cinquante questions de psychologie et de médecine.</t>
         </is>
       </c>
     </row>
